--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_293.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_293.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,634 +488,652 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_13</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_32</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1611768468180365</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['Ab:7', 'Ab:7', 'Eb', 'Eb', 'Bb:7', 'Bb:7', 'Eb', 'Eb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_141</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_180</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.106312292358804</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:7', 'C:7', 'G', 'G', 'D:7', 'D:7', 'G', 'G', 'G']]</t>
+          <t>[['F:maj', 'F:7', 'A#:maj'], ['G:maj/B', 'C:maj/E', 'F:maj'], ['F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(22.86, 46.94)]</t>
+          <t>[['F', 'F:7', 'Bb'], ['G', 'C', 'F'], ['F', 'C', 'F']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(8.71, 21.5)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:20.780000', '0:00:31.600000'), ('0:03:26.500000', '0:03:29.360000'), ('0:00:00.780000', '0:00:24.860000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:17.737518', '0:00:22.996837'), ('0:00:07.265318', '0:00:12.547858'), ('0:00:00.440395', '0:00:05.558652')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_233</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.07900136798905609</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_95</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_183</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07338709677419356</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min']]</t>
+          <t>[['C/G', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(0.38, 6.26)]</t>
+          <t>[['D', 'A:7', 'D']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(36.711, 39.787)]</t>
+          <t>[('0:03:46.620000', '0:03:50.460000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:09.520470', '0:01:14.942329')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_53</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1929744525547445</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2767857142857143</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'G']]</t>
+          <t>[['C#:maj', 'G#:7', 'C#:maj'], ['G#:7', 'C#:maj', 'C#:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(211.26, 219.14)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(41.7, 45.42)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:00.480000', '0:00:08.480000'), ('0:00:25.900000', '0:00:35.060000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:01:05.440000', '0:01:06.820000'), ('0:01:06.040000', '0:01:09.180000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_72</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.09521739130434782</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1821946169772257</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb', 'Ab']]</t>
+          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(0.866546, 11.872804)]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(103.35, 106.64)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:16.800000', '0:00:20.080000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:01:08.040000', '0:01:19')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_63</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_92</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1613636363636363</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['C:min/G', 'G:7', 'C:min'], ['C:min/G', 'G', 'C:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(8.26, 12.96)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D'], ['B:min', 'F#:maj/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[('0:00:25.800000', '0:00:29.460000'), ('0:00:14.620000', '0:00:19.560000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:00.360000', '0:00:02.440000'), ('0:00:13.560000', '0:00:16.280000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2976190476190476</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>isophonics_69</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4632352941176471</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(56.72, 58.88)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(69.86, 73.74)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:25.015959', '0:00:36.625937')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.04807692307692308</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
-        </is>
+          <t>isophonics_149</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_157</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4807692307692308</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G']]</t>
+          <t>[['B', 'E', 'B', 'F#', 'B', 'E']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(70.98, 80.44), (42.44, 44.36), (90.6, 101.18)]</t>
+          <t>[['E', 'A', 'E', 'B', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(226.62, 230.46), (20.92, 24.02), (7.3, 10.3)]</t>
+          <t>[('0:00:40.546893', '0:00:53.747437')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:11.192403', '0:01:27.736621')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_14</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.17825311942959</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Ab', 'Ab', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E/5', 'E/#4', 'E/4', 'E']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(22.94, 30.25)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(0.440395, 7.659045)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:00.580000', '0:00:10.180000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:27.600000', '0:00:47.440000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1076923076923077</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A', 'B:min'], ['D', 'A', 'A:7', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj', 'A:min/C'], ['C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(70.583424, 80.010725), (16.562199, 24.735623)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(21.58, 30.48), (66.26, 72.24)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:56.720000', '0:00:58.880000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.421195652173913</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6000000000000001</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(230.78, 246.86)]</t>
+          <t>[['E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(17.9, 21.42)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:37.995918', '0:00:49.466575')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_74</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_49</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G', 'G', 'G']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(18.47, 20.04)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(20.940758, 23.936132)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:57.520000', '0:01:03.420000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:55.820000', '0:01:01.680000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_275</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3506493506493507</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(8.158789, 22.58999)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(56.72, 58.88)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:00:00.360000', '0:02:02.640000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:01.540000', '0:02:18.860000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(8.98, 20.58)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8)]</t>
+          <t>[('0:00:00.360000', '0:02:07.800000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:00.820000', '0:02:25.840000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1559220389805097</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:maj/A']]</t>
+          <t>[['F:maj', 'D:7/F#', 'G:min', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(63.01, 68.27)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(16.2, 19.54)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:01.220000', '0:01:07.740000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:01:20.920000', '0:01:29.040000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_196</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2318840579710145</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_51</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_95</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(8.7, 18.3)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(16.2, 18.46)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>jaah_9</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>jaah_74</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1238095238095238</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F', 'F'], ['G:min7', 'C:7', 'F:7'], ['G:7', 'C:7', 'F']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['F:min7', 'Bb:7', 'Eb:7'], ['F:7', 'Bb:7', 'Eb']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(51.69, 55.72), (3.05, 6.96), (50.36, 54.4)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(18.07, 19.25), (85.15, 87.51), (4.83, 7.28)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:14.880000', '0:01:39.500000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:13.400000', '0:01:28.140000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
